--- a/Votes.xlsx
+++ b/Votes.xlsx
@@ -604,7 +604,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
